--- a/SupplementaryTables/SupplementaryTable10.xlsx
+++ b/SupplementaryTables/SupplementaryTable10.xlsx
@@ -16,143 +16,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="283">
   <si>
     <t>Negative_prenatal</t>
   </si>
   <si>
+    <t>CCNA1</t>
+  </si>
+  <si>
+    <t>REEP1</t>
+  </si>
+  <si>
+    <t>FZD3</t>
+  </si>
+  <si>
+    <t>FSD1L</t>
+  </si>
+  <si>
+    <t>EFNB3</t>
+  </si>
+  <si>
+    <t>PKIA</t>
+  </si>
+  <si>
+    <t>APLNR</t>
+  </si>
+  <si>
+    <t>DYDC2</t>
+  </si>
+  <si>
+    <t>GLRA2</t>
+  </si>
+  <si>
+    <t>SCN3A</t>
+  </si>
+  <si>
+    <t>FAM181A</t>
+  </si>
+  <si>
+    <t>GDPD2</t>
+  </si>
+  <si>
+    <t>GNG4</t>
+  </si>
+  <si>
+    <t>GLTPD2</t>
+  </si>
+  <si>
+    <t>MGAT4C</t>
+  </si>
+  <si>
+    <t>LPAR4</t>
+  </si>
+  <si>
     <t>NUDT11</t>
   </si>
   <si>
-    <t>GLRA2</t>
-  </si>
-  <si>
-    <t>LPAR4</t>
-  </si>
-  <si>
-    <t>MGAT4C</t>
-  </si>
-  <si>
-    <t>GLTPD2</t>
-  </si>
-  <si>
-    <t>APLNR</t>
+    <t>DLX1</t>
+  </si>
+  <si>
+    <t>CNR1</t>
   </si>
   <si>
     <t>OCA2</t>
   </si>
   <si>
-    <t>CNR1</t>
-  </si>
-  <si>
-    <t>FAM181A</t>
-  </si>
-  <si>
     <t>SLIT1</t>
   </si>
   <si>
-    <t>EFNB3</t>
-  </si>
-  <si>
-    <t>GDPD2</t>
-  </si>
-  <si>
-    <t>CCNA1</t>
-  </si>
-  <si>
-    <t>REEP1</t>
-  </si>
-  <si>
     <t>TRH</t>
   </si>
   <si>
-    <t>FSD1L</t>
-  </si>
-  <si>
-    <t>GNG4</t>
-  </si>
-  <si>
-    <t>DYDC2</t>
-  </si>
-  <si>
-    <t>PKIA</t>
-  </si>
-  <si>
-    <t>DLX1</t>
-  </si>
-  <si>
-    <t>LY6H</t>
-  </si>
-  <si>
-    <t>FZD3</t>
-  </si>
-  <si>
-    <t>SCN3A</t>
-  </si>
-  <si>
     <t>Negative_postnatal</t>
   </si>
   <si>
+    <t>ALK</t>
+  </si>
+  <si>
     <t>PANX2</t>
   </si>
   <si>
+    <t>IQCA1</t>
+  </si>
+  <si>
+    <t>GABRG3</t>
+  </si>
+  <si>
+    <t>HTR2C</t>
+  </si>
+  <si>
+    <t>NGB</t>
+  </si>
+  <si>
+    <t>RTBDN</t>
+  </si>
+  <si>
+    <t>PLCXD3</t>
+  </si>
+  <si>
+    <t>SLC7A11</t>
+  </si>
+  <si>
+    <t>ZCCHC12</t>
+  </si>
+  <si>
+    <t>GABRG1</t>
+  </si>
+  <si>
+    <t>GDA</t>
+  </si>
+  <si>
+    <t>SYT4</t>
+  </si>
+  <si>
     <t>AQP4</t>
   </si>
   <si>
-    <t>SYT4</t>
+    <t>SPAG6</t>
+  </si>
+  <si>
+    <t>ITM2C</t>
   </si>
   <si>
     <t>BHLHB9</t>
   </si>
   <si>
-    <t>ZCCHC12</t>
-  </si>
-  <si>
-    <t>GABRG3</t>
-  </si>
-  <si>
-    <t>NGB</t>
-  </si>
-  <si>
-    <t>SPAG6</t>
-  </si>
-  <si>
     <t>SLC1A3</t>
   </si>
   <si>
-    <t>SLC7A11</t>
-  </si>
-  <si>
     <t>SYT17</t>
   </si>
   <si>
-    <t>IQCA1</t>
-  </si>
-  <si>
-    <t>RTBDN</t>
-  </si>
-  <si>
-    <t>HTR2C</t>
-  </si>
-  <si>
-    <t>PLCXD3</t>
-  </si>
-  <si>
-    <t>ITM2C</t>
-  </si>
-  <si>
     <t>ENKUR</t>
   </si>
   <si>
-    <t>ALK</t>
-  </si>
-  <si>
-    <t>GDA</t>
-  </si>
-  <si>
-    <t>GABRG1</t>
-  </si>
-  <si>
     <t>Positive_prenatal</t>
   </si>
   <si>
@@ -165,712 +162,709 @@
     <t>Positive_postnatal</t>
   </si>
   <si>
+    <t>SYT3</t>
+  </si>
+  <si>
+    <t>HHIP</t>
+  </si>
+  <si>
+    <t>LYPD5</t>
+  </si>
+  <si>
+    <t>CKMT1A</t>
+  </si>
+  <si>
+    <t>YPEL4</t>
+  </si>
+  <si>
+    <t>ZDHHC22</t>
+  </si>
+  <si>
+    <t>SNCB</t>
+  </si>
+  <si>
+    <t>PVALB</t>
+  </si>
+  <si>
+    <t>ADARB2</t>
+  </si>
+  <si>
+    <t>CNDP1</t>
+  </si>
+  <si>
+    <t>GRM1</t>
+  </si>
+  <si>
+    <t>NAT8L</t>
+  </si>
+  <si>
+    <t>NEFM</t>
+  </si>
+  <si>
+    <t>NIPA1</t>
+  </si>
+  <si>
+    <t>PPM1H</t>
+  </si>
+  <si>
+    <t>ZMAT4</t>
+  </si>
+  <si>
+    <t>KRT222</t>
+  </si>
+  <si>
+    <t>PRRT3</t>
+  </si>
+  <si>
+    <t>TRPC3</t>
+  </si>
+  <si>
+    <t>PAK1</t>
+  </si>
+  <si>
+    <t>ADAM23</t>
+  </si>
+  <si>
+    <t>GLDN</t>
+  </si>
+  <si>
+    <t>ATP2B3</t>
+  </si>
+  <si>
+    <t>SLC24A2</t>
+  </si>
+  <si>
+    <t>KCNA2</t>
+  </si>
+  <si>
+    <t>SCN1B</t>
+  </si>
+  <si>
+    <t>TMEM151A</t>
+  </si>
+  <si>
+    <t>OLIG2</t>
+  </si>
+  <si>
+    <t>EHD3</t>
+  </si>
+  <si>
+    <t>LRTM2</t>
+  </si>
+  <si>
+    <t>GRID1</t>
+  </si>
+  <si>
+    <t>ELMO1</t>
+  </si>
+  <si>
+    <t>GNG13</t>
+  </si>
+  <si>
+    <t>GRAMD1B</t>
+  </si>
+  <si>
+    <t>ANO4</t>
+  </si>
+  <si>
+    <t>HSPA12A</t>
+  </si>
+  <si>
+    <t>SNPH</t>
+  </si>
+  <si>
+    <t>ADAM11</t>
+  </si>
+  <si>
+    <t>AATK</t>
+  </si>
+  <si>
     <t>FNDC5</t>
   </si>
   <si>
-    <t>HHIP</t>
-  </si>
-  <si>
-    <t>KRT222</t>
-  </si>
-  <si>
-    <t>NEFM</t>
-  </si>
-  <si>
-    <t>GNG13</t>
-  </si>
-  <si>
-    <t>PAK1</t>
-  </si>
-  <si>
-    <t>PRRT3</t>
-  </si>
-  <si>
-    <t>SYT3</t>
-  </si>
-  <si>
-    <t>ZMAT4</t>
-  </si>
-  <si>
-    <t>TRPC3</t>
+    <t>PPFIA4</t>
+  </si>
+  <si>
+    <t>AMZ1</t>
+  </si>
+  <si>
+    <t>RGS7BP</t>
+  </si>
+  <si>
+    <t>RNF157</t>
+  </si>
+  <si>
+    <t>GABRB2</t>
+  </si>
+  <si>
+    <t>SEC14L5</t>
+  </si>
+  <si>
+    <t>TMEM38A</t>
+  </si>
+  <si>
+    <t>ATP2B2</t>
+  </si>
+  <si>
+    <t>CNTN2</t>
+  </si>
+  <si>
+    <t>NDRG3</t>
+  </si>
+  <si>
+    <t>OSBP2</t>
+  </si>
+  <si>
+    <t>CD99L2</t>
+  </si>
+  <si>
+    <t>SCN8A</t>
+  </si>
+  <si>
+    <t>PEX5L</t>
+  </si>
+  <si>
+    <t>KCNA1</t>
+  </si>
+  <si>
+    <t>ADORA1</t>
+  </si>
+  <si>
+    <t>CPLX1</t>
+  </si>
+  <si>
+    <t>RASGRF1</t>
+  </si>
+  <si>
+    <t>KNDC1</t>
+  </si>
+  <si>
+    <t>ZNF365</t>
+  </si>
+  <si>
+    <t>OPALIN</t>
+  </si>
+  <si>
+    <t>NEU4</t>
   </si>
   <si>
     <t>CHRNA2</t>
   </si>
   <si>
-    <t>KCNA2</t>
-  </si>
-  <si>
-    <t>GRID1</t>
-  </si>
-  <si>
-    <t>ELMO1</t>
-  </si>
-  <si>
-    <t>NDRG3</t>
-  </si>
-  <si>
-    <t>ZNF365</t>
-  </si>
-  <si>
-    <t>ADORA1</t>
-  </si>
-  <si>
-    <t>CNTN2</t>
-  </si>
-  <si>
-    <t>NAT8L</t>
-  </si>
-  <si>
-    <t>GLDN</t>
-  </si>
-  <si>
-    <t>OLIG2</t>
-  </si>
-  <si>
-    <t>ATP2B2</t>
-  </si>
-  <si>
-    <t>SNPH</t>
-  </si>
-  <si>
-    <t>SCN1B</t>
-  </si>
-  <si>
-    <t>ADARB2</t>
-  </si>
-  <si>
-    <t>AATK</t>
-  </si>
-  <si>
-    <t>GRM1</t>
-  </si>
-  <si>
-    <t>HSPA12A</t>
-  </si>
-  <si>
-    <t>PPFIA4</t>
-  </si>
-  <si>
-    <t>AMZ1</t>
-  </si>
-  <si>
-    <t>ADAM23</t>
-  </si>
-  <si>
-    <t>LYPD5</t>
-  </si>
-  <si>
-    <t>OSBP2</t>
-  </si>
-  <si>
-    <t>LRTM2</t>
-  </si>
-  <si>
-    <t>RNF157</t>
-  </si>
-  <si>
-    <t>SCN8A</t>
-  </si>
-  <si>
-    <t>CD99L2</t>
-  </si>
-  <si>
-    <t>EHD3</t>
-  </si>
-  <si>
-    <t>ATP2B3</t>
-  </si>
-  <si>
-    <t>PPM1H</t>
-  </si>
-  <si>
-    <t>OPALIN</t>
-  </si>
-  <si>
-    <t>ZDHHC22</t>
-  </si>
-  <si>
-    <t>GRAMD1B</t>
+    <t>PLEKHH1</t>
+  </si>
+  <si>
+    <t>CKMT1B</t>
+  </si>
+  <si>
+    <t>GABBR2</t>
+  </si>
+  <si>
+    <t>PLLP</t>
+  </si>
+  <si>
+    <t>LHFPL3</t>
   </si>
   <si>
     <t>RNF208</t>
   </si>
   <si>
-    <t>CKMT1A</t>
-  </si>
-  <si>
-    <t>LHFPL3</t>
-  </si>
-  <si>
-    <t>TMEM151A</t>
-  </si>
-  <si>
-    <t>GABBR2</t>
-  </si>
-  <si>
-    <t>RASGRF1</t>
-  </si>
-  <si>
-    <t>SEC14L5</t>
-  </si>
-  <si>
-    <t>PLLP</t>
-  </si>
-  <si>
-    <t>YPEL4</t>
-  </si>
-  <si>
-    <t>NEU4</t>
-  </si>
-  <si>
-    <t>ANO4</t>
-  </si>
-  <si>
-    <t>NIPA1</t>
-  </si>
-  <si>
-    <t>KNDC1</t>
-  </si>
-  <si>
-    <t>TMEM38A</t>
-  </si>
-  <si>
-    <t>CNDP1</t>
-  </si>
-  <si>
-    <t>PLEKHH1</t>
-  </si>
-  <si>
-    <t>CKMT1B</t>
-  </si>
-  <si>
-    <t>SPTSSB</t>
-  </si>
-  <si>
-    <t>PVALB</t>
-  </si>
-  <si>
-    <t>SLC24A2</t>
-  </si>
-  <si>
-    <t>ADAM11</t>
-  </si>
-  <si>
-    <t>KCNA1</t>
-  </si>
-  <si>
-    <t>SNCB</t>
-  </si>
-  <si>
-    <t>RGS7BP</t>
-  </si>
-  <si>
-    <t>PEX5L</t>
-  </si>
-  <si>
-    <t>CPLX1</t>
+    <t>CNIH2</t>
+  </si>
+  <si>
+    <t>PCDHB15</t>
+  </si>
+  <si>
+    <t>ZIC5</t>
+  </si>
+  <si>
+    <t>KIAA0319</t>
+  </si>
+  <si>
+    <t>ZIC2</t>
+  </si>
+  <si>
+    <t>GBX2</t>
   </si>
   <si>
     <t>NOG</t>
   </si>
   <si>
+    <t>BCHE</t>
+  </si>
+  <si>
+    <t>SNCAIP</t>
+  </si>
+  <si>
+    <t>ZIC1</t>
+  </si>
+  <si>
+    <t>LRRC7</t>
+  </si>
+  <si>
+    <t>KCNB2</t>
+  </si>
+  <si>
+    <t>RNF165</t>
+  </si>
+  <si>
     <t>ZIC4</t>
   </si>
   <si>
-    <t>SNCAIP</t>
-  </si>
-  <si>
-    <t>RNF165</t>
-  </si>
-  <si>
-    <t>CNIH2</t>
-  </si>
-  <si>
-    <t>LRRC7</t>
-  </si>
-  <si>
-    <t>GBX2</t>
-  </si>
-  <si>
-    <t>ZIC2</t>
-  </si>
-  <si>
-    <t>ZIC5</t>
-  </si>
-  <si>
-    <t>BCHE</t>
-  </si>
-  <si>
-    <t>PCDHB15</t>
-  </si>
-  <si>
-    <t>KCNB2</t>
-  </si>
-  <si>
-    <t>ZIC1</t>
-  </si>
-  <si>
-    <t>KIAA0319</t>
+    <t>PLCB1</t>
+  </si>
+  <si>
+    <t>CALB1</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>CDH22</t>
+  </si>
+  <si>
+    <t>HRH3</t>
+  </si>
+  <si>
+    <t>RAPGEF4</t>
+  </si>
+  <si>
+    <t>INSM2</t>
+  </si>
+  <si>
+    <t>CA7</t>
+  </si>
+  <si>
+    <t>CAMK2B</t>
+  </si>
+  <si>
+    <t>DDAH1</t>
+  </si>
+  <si>
+    <t>ANKS1B</t>
+  </si>
+  <si>
+    <t>AK5</t>
+  </si>
+  <si>
+    <t>CPNE9</t>
+  </si>
+  <si>
+    <t>STX1A</t>
+  </si>
+  <si>
+    <t>SUSD4</t>
+  </si>
+  <si>
+    <t>CACNB2</t>
+  </si>
+  <si>
+    <t>CACNB4</t>
+  </si>
+  <si>
+    <t>CPNE7</t>
+  </si>
+  <si>
+    <t>TRIM9</t>
+  </si>
+  <si>
+    <t>IPCEF1</t>
+  </si>
+  <si>
+    <t>ADRA1D</t>
+  </si>
+  <si>
+    <t>PRKCG</t>
+  </si>
+  <si>
+    <t>MTUS2</t>
+  </si>
+  <si>
+    <t>TMEM132E</t>
+  </si>
+  <si>
+    <t>KCNF1</t>
+  </si>
+  <si>
+    <t>LRRTM1</t>
   </si>
   <si>
     <t>PSD3</t>
   </si>
   <si>
-    <t>PRKCG</t>
-  </si>
-  <si>
-    <t>KCNJ3</t>
-  </si>
-  <si>
-    <t>CALB1</t>
-  </si>
-  <si>
-    <t>CA7</t>
-  </si>
-  <si>
-    <t>CDH22</t>
-  </si>
-  <si>
-    <t>DDAH1</t>
+    <t>UBL4B</t>
+  </si>
+  <si>
+    <t>PCP4</t>
+  </si>
+  <si>
+    <t>VWC2</t>
+  </si>
+  <si>
+    <t>PTHLH</t>
   </si>
   <si>
     <t>ABHD12B</t>
   </si>
   <si>
-    <t>CPNE9</t>
-  </si>
-  <si>
-    <t>INSM2</t>
-  </si>
-  <si>
-    <t>STX1A</t>
-  </si>
-  <si>
-    <t>HRH3</t>
-  </si>
-  <si>
-    <t>RAPGEF4</t>
-  </si>
-  <si>
-    <t>CAMK2B</t>
-  </si>
-  <si>
     <t>CRH</t>
   </si>
   <si>
-    <t>TRIM9</t>
-  </si>
-  <si>
-    <t>PTHLH</t>
-  </si>
-  <si>
-    <t>UBL4B</t>
-  </si>
-  <si>
-    <t>KCNF1</t>
-  </si>
-  <si>
-    <t>PLCB1</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>PCP4</t>
-  </si>
-  <si>
-    <t>SUSD4</t>
-  </si>
-  <si>
-    <t>TMEM132E</t>
-  </si>
-  <si>
-    <t>VWC2</t>
-  </si>
-  <si>
-    <t>ADRA1D</t>
+    <t>RPH3A</t>
   </si>
   <si>
     <t>DAGLA</t>
   </si>
   <si>
-    <t>RPH3A</t>
-  </si>
-  <si>
-    <t>GABRB3</t>
-  </si>
-  <si>
-    <t>ANKS1B</t>
-  </si>
-  <si>
-    <t>AK5</t>
-  </si>
-  <si>
-    <t>CACNB2</t>
-  </si>
-  <si>
-    <t>IPCEF1</t>
-  </si>
-  <si>
-    <t>LRRTM1</t>
-  </si>
-  <si>
-    <t>MTUS2</t>
-  </si>
-  <si>
-    <t>CACNB4</t>
+    <t>TUBB2B</t>
+  </si>
+  <si>
+    <t>SMOC1</t>
+  </si>
+  <si>
+    <t>DPYSL2</t>
+  </si>
+  <si>
+    <t>GOLGA7B</t>
+  </si>
+  <si>
+    <t>GRID2</t>
+  </si>
+  <si>
+    <t>NKAIN1</t>
+  </si>
+  <si>
+    <t>SLC35F1</t>
+  </si>
+  <si>
+    <t>KBTBD11</t>
+  </si>
+  <si>
+    <t>TMEFF1</t>
+  </si>
+  <si>
+    <t>AFF2</t>
+  </si>
+  <si>
+    <t>CLIP2</t>
   </si>
   <si>
     <t>HBQ1</t>
   </si>
   <si>
-    <t>TUBB2B</t>
-  </si>
-  <si>
-    <t>KBTBD11</t>
-  </si>
-  <si>
-    <t>GOLGA7B</t>
-  </si>
-  <si>
-    <t>CLIP2</t>
-  </si>
-  <si>
-    <t>AFF2</t>
-  </si>
-  <si>
-    <t>GRID2</t>
-  </si>
-  <si>
-    <t>FGFBP3</t>
-  </si>
-  <si>
-    <t>SLC35F1</t>
-  </si>
-  <si>
     <t>RUNDC3B</t>
   </si>
   <si>
-    <t>DPYSL2</t>
-  </si>
-  <si>
-    <t>NKAIN1</t>
-  </si>
-  <si>
-    <t>SMOC1</t>
-  </si>
-  <si>
-    <t>TMEFF1</t>
+    <t>PAQR6</t>
+  </si>
+  <si>
+    <t>HEPACAM</t>
+  </si>
+  <si>
+    <t>S100B</t>
+  </si>
+  <si>
+    <t>GALNT13</t>
+  </si>
+  <si>
+    <t>MBP</t>
+  </si>
+  <si>
+    <t>CHI3L1</t>
+  </si>
+  <si>
+    <t>EDIL3</t>
+  </si>
+  <si>
+    <t>MAST3</t>
+  </si>
+  <si>
+    <t>CHADL</t>
+  </si>
+  <si>
+    <t>FMNL2</t>
+  </si>
+  <si>
+    <t>NEBL</t>
+  </si>
+  <si>
+    <t>CLDND1</t>
+  </si>
+  <si>
+    <t>TRIM2</t>
+  </si>
+  <si>
+    <t>CTNNA3</t>
+  </si>
+  <si>
+    <t>NPM2</t>
+  </si>
+  <si>
+    <t>PDIA2</t>
+  </si>
+  <si>
+    <t>PEA15</t>
   </si>
   <si>
     <t>TCEAL6</t>
   </si>
   <si>
+    <t>USH1C</t>
+  </si>
+  <si>
+    <t>NOS1</t>
+  </si>
+  <si>
+    <t>PLEKHB1</t>
+  </si>
+  <si>
+    <t>CNTNAP4</t>
+  </si>
+  <si>
+    <t>FGF1</t>
+  </si>
+  <si>
+    <t>PAIP2B</t>
+  </si>
+  <si>
+    <t>SEC14L2</t>
+  </si>
+  <si>
+    <t>TTYH1</t>
+  </si>
+  <si>
+    <t>PLCL1</t>
+  </si>
+  <si>
+    <t>RALYL</t>
+  </si>
+  <si>
+    <t>CRYAB</t>
+  </si>
+  <si>
+    <t>DAAM2</t>
+  </si>
+  <si>
+    <t>CDH20</t>
+  </si>
+  <si>
     <t>GPD1</t>
   </si>
   <si>
-    <t>CRYAB</t>
-  </si>
-  <si>
-    <t>SEC14L2</t>
-  </si>
-  <si>
-    <t>MBP</t>
+    <t>KLRC2</t>
+  </si>
+  <si>
+    <t>CHST6</t>
+  </si>
+  <si>
+    <t>FAM81A</t>
+  </si>
+  <si>
+    <t>RHBDL3</t>
+  </si>
+  <si>
+    <t>JAKMIP3</t>
+  </si>
+  <si>
+    <t>SLC7A14</t>
+  </si>
+  <si>
+    <t>LHPP</t>
+  </si>
+  <si>
+    <t>SLCO1A2</t>
+  </si>
+  <si>
+    <t>SCRG1</t>
   </si>
   <si>
     <t>TMEM196</t>
   </si>
   <si>
-    <t>SCRG1</t>
-  </si>
-  <si>
-    <t>S100B</t>
-  </si>
-  <si>
-    <t>RHBDL3</t>
-  </si>
-  <si>
-    <t>RALYL</t>
-  </si>
-  <si>
-    <t>FGF1</t>
-  </si>
-  <si>
-    <t>PLCL1</t>
-  </si>
-  <si>
-    <t>PAIP2B</t>
+    <t>SPARCL1</t>
   </si>
   <si>
     <t>NUAK1</t>
   </si>
   <si>
-    <t>SLC7A14</t>
-  </si>
-  <si>
-    <t>GALNT13</t>
-  </si>
-  <si>
-    <t>PLEKHB1</t>
-  </si>
-  <si>
-    <t>FMNL2</t>
-  </si>
-  <si>
-    <t>FAM81A</t>
+    <t>HABP4</t>
   </si>
   <si>
     <t>RFTN2</t>
   </si>
   <si>
-    <t>TRIM2</t>
-  </si>
-  <si>
-    <t>TTYH1</t>
-  </si>
-  <si>
-    <t>JAKMIP3</t>
-  </si>
-  <si>
-    <t>NEBL</t>
-  </si>
-  <si>
-    <t>LHPP</t>
-  </si>
-  <si>
-    <t>CDH20</t>
-  </si>
-  <si>
-    <t>KLRC2</t>
-  </si>
-  <si>
-    <t>PDIA2</t>
-  </si>
-  <si>
-    <t>HEPACAM</t>
-  </si>
-  <si>
-    <t>PEA15</t>
-  </si>
-  <si>
-    <t>CHI3L1</t>
-  </si>
-  <si>
-    <t>HABP4</t>
-  </si>
-  <si>
-    <t>CTNNA3</t>
-  </si>
-  <si>
-    <t>CHADL</t>
-  </si>
-  <si>
-    <t>CLDND1</t>
-  </si>
-  <si>
-    <t>USH1C</t>
-  </si>
-  <si>
-    <t>CHST6</t>
-  </si>
-  <si>
-    <t>PAQR6</t>
-  </si>
-  <si>
-    <t>NPM2</t>
-  </si>
-  <si>
-    <t>CNTNAP4</t>
-  </si>
-  <si>
-    <t>SPARCL1</t>
-  </si>
-  <si>
-    <t>DAAM2</t>
-  </si>
-  <si>
-    <t>SLCO1A2</t>
-  </si>
-  <si>
-    <t>MAST3</t>
-  </si>
-  <si>
-    <t>NOS1</t>
+    <t>POU3F3</t>
+  </si>
+  <si>
+    <t>SOX1</t>
+  </si>
+  <si>
+    <t>KIAA1549</t>
+  </si>
+  <si>
+    <t>RAB33A</t>
   </si>
   <si>
     <t>RASGEF1C</t>
   </si>
   <si>
+    <t>PHF21B</t>
+  </si>
+  <si>
+    <t>FAM181B</t>
+  </si>
+  <si>
     <t>KLHDC8A</t>
   </si>
   <si>
-    <t>POU3F3</t>
-  </si>
-  <si>
-    <t>KIAA1549</t>
-  </si>
-  <si>
-    <t>FAM181B</t>
-  </si>
-  <si>
-    <t>SOX1</t>
-  </si>
-  <si>
-    <t>GRM3</t>
-  </si>
-  <si>
-    <t>PHF21B</t>
-  </si>
-  <si>
-    <t>RAB33A</t>
-  </si>
-  <si>
-    <t>TUBB3</t>
+    <t>ABLIM2</t>
+  </si>
+  <si>
+    <t>CNTN3</t>
+  </si>
+  <si>
+    <t>RCAN2</t>
+  </si>
+  <si>
+    <t>MAP6D1</t>
   </si>
   <si>
     <t>GREM1</t>
   </si>
   <si>
-    <t>RCAN2</t>
+    <t>PRUNE2</t>
+  </si>
+  <si>
+    <t>DKK3</t>
+  </si>
+  <si>
+    <t>ATP10B</t>
+  </si>
+  <si>
+    <t>NRSN1</t>
+  </si>
+  <si>
+    <t>CAP2</t>
+  </si>
+  <si>
+    <t>PRNP</t>
+  </si>
+  <si>
+    <t>LYNX1</t>
+  </si>
+  <si>
+    <t>PCDH10</t>
+  </si>
+  <si>
+    <t>SYNGR3</t>
+  </si>
+  <si>
+    <t>SLC10A4</t>
+  </si>
+  <si>
+    <t>PDE8B</t>
+  </si>
+  <si>
+    <t>BEST1</t>
+  </si>
+  <si>
+    <t>PCDH9</t>
   </si>
   <si>
     <t>FAM131C</t>
   </si>
   <si>
-    <t>PRUNE2</t>
-  </si>
-  <si>
-    <t>CNTN3</t>
-  </si>
-  <si>
-    <t>CHN1</t>
-  </si>
-  <si>
-    <t>SYNGR3</t>
-  </si>
-  <si>
-    <t>DKK3</t>
-  </si>
-  <si>
-    <t>MAP6D1</t>
-  </si>
-  <si>
-    <t>CAP2</t>
-  </si>
-  <si>
-    <t>PRNP</t>
-  </si>
-  <si>
-    <t>PDE8B</t>
-  </si>
-  <si>
-    <t>PCDH10</t>
+    <t>ENTPD2</t>
   </si>
   <si>
     <t>KLHL4</t>
   </si>
   <si>
-    <t>BEST1</t>
-  </si>
-  <si>
-    <t>SLC10A4</t>
-  </si>
-  <si>
-    <t>ABLIM2</t>
-  </si>
-  <si>
-    <t>SORCS1</t>
-  </si>
-  <si>
-    <t>ATP10B</t>
-  </si>
-  <si>
-    <t>ENTPD2</t>
-  </si>
-  <si>
-    <t>PCDH9</t>
+    <t>INSM1</t>
+  </si>
+  <si>
+    <t>L1CAM</t>
+  </si>
+  <si>
+    <t>SEZ6</t>
+  </si>
+  <si>
+    <t>DCLK2</t>
+  </si>
+  <si>
+    <t>ADCYAP1R1</t>
+  </si>
+  <si>
+    <t>ST6GAL2</t>
+  </si>
+  <si>
+    <t>NOL4</t>
   </si>
   <si>
     <t>LRFN1</t>
   </si>
   <si>
+    <t>IGFBPL1</t>
+  </si>
+  <si>
     <t>CSPG5</t>
   </si>
   <si>
-    <t>DCLK2</t>
-  </si>
-  <si>
-    <t>SEZ6</t>
-  </si>
-  <si>
-    <t>INSM1</t>
-  </si>
-  <si>
-    <t>L1CAM</t>
-  </si>
-  <si>
-    <t>IGFBPL1</t>
-  </si>
-  <si>
-    <t>ST6GAL2</t>
+    <t>PCDH19</t>
   </si>
   <si>
     <t>GPM6A</t>
   </si>
   <si>
-    <t>ADCYAP1R1</t>
-  </si>
-  <si>
-    <t>NOL4</t>
+    <t>GLRA3</t>
   </si>
   <si>
     <t>DOC2A</t>
   </si>
   <si>
+    <t>PTCHD1</t>
+  </si>
+  <si>
+    <t>LHFPL1</t>
+  </si>
+  <si>
+    <t>SCARA3</t>
+  </si>
+  <si>
     <t>LRFN5</t>
   </si>
   <si>
+    <t>SUSD5</t>
+  </si>
+  <si>
+    <t>PCP4L1</t>
+  </si>
+  <si>
+    <t>CCKBR</t>
+  </si>
+  <si>
     <t>HAP1</t>
   </si>
   <si>
     <t>SLC13A5</t>
   </si>
   <si>
+    <t>MC4R</t>
+  </si>
+  <si>
+    <t>SYT12</t>
+  </si>
+  <si>
+    <t>SYT16</t>
+  </si>
+  <si>
     <t>PLCH1</t>
   </si>
   <si>
-    <t>PCP4L1</t>
-  </si>
-  <si>
-    <t>MC4R</t>
-  </si>
-  <si>
-    <t>SYT16</t>
-  </si>
-  <si>
-    <t>SCARA3</t>
-  </si>
-  <si>
-    <t>SUSD5</t>
-  </si>
-  <si>
     <t>UNC13C</t>
   </si>
   <si>
-    <t>PTCHD1</t>
-  </si>
-  <si>
-    <t>CCKBR</t>
-  </si>
-  <si>
-    <t>GLRA3</t>
-  </si>
-  <si>
-    <t>SYT12</t>
-  </si>
-  <si>
-    <t>LHFPL1</t>
+    <t>RAB26</t>
   </si>
 </sst>
 </file>
@@ -940,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -954,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -968,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -982,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +987,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1004,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1015,10 +1009,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1026,10 +1020,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1037,10 +1031,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1048,10 +1042,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1059,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -1070,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1081,10 +1075,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -1092,10 +1086,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -1103,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -1114,10 +1108,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -1125,10 +1119,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1136,10 +1130,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -1147,10 +1141,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1158,10 +1152,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -1169,10 +1163,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -1180,7 +1174,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -1188,245 +1182,242 @@
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="D34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="D47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="D48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="D49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="D50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="D52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="D53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="D55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="D56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="D57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="D58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="D59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="D60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="D61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="D62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="D63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="D64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="D65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66">
       <c r="D66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="D67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68">
       <c r="D68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="D69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="D70" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1426,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="true"/>
@@ -1449,430 +1440,429 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39">
       <c r="D39" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40">
       <c r="D40" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41">
       <c r="D41" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42">
       <c r="D42" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43">
       <c r="D43" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44">
       <c r="D44" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45">
       <c r="D45" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46">
       <c r="D46" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1895,229 +1885,229 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="B10" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
